--- a/dates.xlsx
+++ b/dates.xlsx
@@ -473,7 +473,7 @@
     <row r="1" ht="13.8" customHeight="1" s="5">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>The date from 05/12/2022 is in the PAST. The date from 08/12/2022 is in the PAST. The date from 21/11/2022 is in the PAST</t>
+          <t>No dates found in the PAST. The date from 05/12/2022 is in the PAST. The date from 08/12/2022 is in the PAST. The date from 21/11/2022 is in the PAST</t>
         </is>
       </c>
       <c r="B1" s="6" t="n">

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -70,7 +70,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -78,9 +78,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -467,41 +464,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="107.17" customWidth="1" style="4" min="1" max="1"/>
+    <col width="107.17" customWidth="1" style="3" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="5">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="4">
+      <c r="A1" t="inlineStr">
         <is>
-          <t>No dates found in the PAST. The date from 05/12/2022 is in the PAST. The date from 08/12/2022 is in the PAST. The date from 21/11/2022 is in the PAST</t>
+          <t>The date from 05/12/2022 is in the PAST. The date from 08/12/2022 is in the PAST. The date from 21/11/2022 is in the PAST</t>
         </is>
       </c>
-      <c r="B1" s="6" t="n">
+      <c r="B1" s="5" t="n">
         <v>44900</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5" t="n">
         <v>44903</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5" t="n">
         <v>44886</v>
       </c>
-      <c r="E1" s="4" t="n"/>
+      <c r="E1" s="3" t="n"/>
     </row>
-    <row r="2" ht="15" customHeight="1" s="5"/>
-    <row r="3" ht="13.8" customHeight="1" s="5">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4"/>
+    <row r="3" ht="13.8" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>This is a string 2</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="5">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>This is a string 3</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>This is a string 4</t>
         </is>
